--- a/Assignment_8/Product_Category.xlsx
+++ b/Assignment_8/Product_Category.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Projects\Litmus7\Assignment_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FF3D2E-5528-4E7E-9379-DEAE0D2ADE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6571B1-B0F3-470F-82D1-222F0F37C516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12BB700E-C603-4D1C-851B-8E39E06CE148}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
   <si>
     <t>category</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>HP Victus 16 Red Intel Nvidia</t>
-  </si>
-  <si>
-    <t>variant_category</t>
   </si>
   <si>
     <t>HP Victus 19 Black Intel Nvidia</t>
@@ -263,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,10 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E407D0-F135-4AA1-B9E9-885E36B87BA8}">
   <dimension ref="B2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,16 +865,15 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="G20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
@@ -901,7 +894,7 @@
       <c r="H21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
@@ -920,7 +913,6 @@
       <c r="H22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
@@ -939,19 +931,14 @@
       <c r="H23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
       <c r="G24" s="3">
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="4"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -1179,7 +1166,7 @@
         <v>1002</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J37" s="3">
         <v>70000</v>
